--- a/regionseng/8/agriculture/4. Production of animal housbandry.xlsx
+++ b/regionseng/8/agriculture/4. Production of animal housbandry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\ქვემო ქართლი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\ქვემო ქართლი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE64F94-9E0C-411F-BB14-38B2E5FB46CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -372,23 +371,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -424,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +597,7 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -652,8 +617,10 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -703,8 +670,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -756,8 +729,14 @@
       <c r="Q3" s="5">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="S3" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,8 +788,14 @@
       <c r="Q4" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -862,8 +847,14 @@
       <c r="Q5" s="5">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="S5" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -915,8 +906,14 @@
       <c r="Q6" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -968,8 +965,14 @@
       <c r="Q7" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="S7" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1021,8 +1024,14 @@
       <c r="Q8" s="5">
         <v>127.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="5">
+        <v>125</v>
+      </c>
+      <c r="S8" s="5">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1083,14 @@
       <c r="Q9" s="5">
         <v>124.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="5">
+        <v>122.4</v>
+      </c>
+      <c r="S9" s="5">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1142,14 @@
       <c r="Q10" s="12">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="S10" s="12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1180,8 +1201,14 @@
       <c r="Q11" s="11">
         <v>278.10000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="11">
+        <v>279.10000000000002</v>
+      </c>
+      <c r="S11" s="11">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1233,8 +1260,14 @@
       <c r="Q12" s="12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1286,8 +1319,14 @@
       <c r="Q13" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1347,7 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1372,7 @@
   <mergeCells count="3">
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
